--- a/ephyz/glomeruli-and-cell-counts.xlsx
+++ b/ephyz/glomeruli-and-cell-counts.xlsx
@@ -89,7 +89,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -142,18 +142,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -165,11 +156,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -455,7 +452,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B1" sqref="B1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,12 +465,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="I1" t="s">
         <v>0</v>
       </c>
@@ -485,31 +482,31 @@
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="7" t="str">
         <f>TEXT(I4,"#,##0")&amp;" ± "&amp;TEXT(J4,"#,##0")&amp;" ("&amp;K4&amp;")"</f>
         <v>1,943 ± 171 (10)</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="8">
@@ -526,15 +523,15 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="str">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="str">
         <f>TEXT(I5,"#,##0")&amp;" ± "&amp;TEXT(J5,"#,##0")&amp;" ("&amp;K5&amp;")"</f>
         <v>1,810 ± 164 (16)</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="8"/>
       <c r="I5">
         <v>1810</v>
       </c>
@@ -546,22 +543,23 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="7" t="str">
         <f>TEXT(I7,"#,##0")&amp;" ± "&amp;TEXT(J7,"#,##0")&amp;" ("&amp;K7&amp;")"</f>
         <v>38,355 ± 2,856 (4)</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>39660</v>
       </c>
       <c r="I7">
@@ -575,15 +573,15 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="str">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="str">
         <f>TEXT(I8,"#,##0")&amp;" ± "&amp;TEXT(J8,"#,##0")&amp;" ("&amp;K8&amp;")"</f>
         <v>45,250 ± 0 (1)</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
       <c r="I8">
         <v>45250</v>
       </c>
@@ -595,22 +593,23 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="7" t="str">
         <f>TEXT(I10,"#,##0")&amp;" ± "&amp;TEXT(J10,"#,##0")&amp;" ("&amp;K10&amp;")"</f>
         <v>95,888 ± 9,784 (2)</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>93564</v>
       </c>
       <c r="I10">
@@ -624,15 +623,15 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="str">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="str">
         <f>TEXT(I11,"#,##0")&amp;" ± "&amp;TEXT(J11,"#,##0")&amp;" ("&amp;K11&amp;")"</f>
         <v>76,710 ± 0 (1)</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="8"/>
       <c r="I11">
         <v>76710</v>
       </c>
@@ -644,15 +643,15 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="str">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="str">
         <f>TEXT(I12,"#,##0")&amp;" ± "&amp;TEXT(J12,"#,##0")&amp;" ("&amp;K12&amp;")"</f>
         <v>90,500 ± 0 (1)</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="7"/>
       <c r="I12">
         <v>90500</v>
       </c>
@@ -664,21 +663,23 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="7" t="str">
         <f>TEXT(I14,"#,##0")&amp;" ± "&amp;TEXT(J14,"#,##0")&amp;" ("&amp;K14&amp;")"</f>
         <v>758,313 ± 248,050 (33)</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>672353</v>
       </c>
       <c r="I14">
@@ -692,14 +693,15 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="str">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="str">
         <f>TEXT(I15,"#,##0")&amp;" ± "&amp;TEXT(J15,"#,##0")&amp;" ("&amp;K15&amp;")"</f>
         <v>537,064 ± 30,637 (16)</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="E15" s="7"/>
       <c r="I15">
         <v>537064</v>
       </c>
@@ -711,13 +713,15 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
